--- a/dashboard-ui/src/components/SurveyResults/Exploratory Delegation Variables.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Exploratory Delegation Variables.xlsx
@@ -34,13 +34,13 @@
     <t>Total Time</t>
   </si>
   <si>
-    <t>Post-Scenario Measures - Time Taken (mm:ss)</t>
+    <t>Post-Scenario Measures - Time Taken (Minutes)</t>
   </si>
   <si>
     <t>VR Experience Level</t>
   </si>
   <si>
-    <t>Note Page - Time Taken (mm:ss)</t>
+    <t>Note Page - Time Taken (Minutes)</t>
   </si>
   <si>
     <t>BX_DMY</t>
@@ -142,7 +142,7 @@
     <t>The time the participant ended the survey</t>
   </si>
   <si>
-    <t>The total time (mm:ss) it took the participant to complete the survey</t>
+    <t>The total time (Minutes) it took the participant to complete the survey</t>
   </si>
   <si>
     <t>The total time it took the participant to go through the last page of the survey</t>
@@ -205,7 +205,7 @@
     <t>The name and alignment value of the third medic being compared in this comparison page</t>
   </si>
   <si>
-    <t>The amount of time the participant spent (mm:ss) on the comparison page</t>
+    <t>The amount of time the participant spent (Minutes) on the comparison page</t>
   </si>
   <si>
     <t>The response to the first forced choice question (baseline vs aligned)</t>
@@ -977,13 +977,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1015,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1026,12 +1026,6 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1039,7 +1033,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,46 +1343,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="7" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="7" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="7" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="7" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="7" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="7" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="8" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="7" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="5" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="5" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="6" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="5" width="25.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="42" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="51" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1416,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1452,10 +1446,10 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
@@ -1479,10 +1473,10 @@
       <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
@@ -1494,14 +1488,14 @@
       <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="174" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="208.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1565,10 +1559,10 @@
       <c r="U2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>59</v>
       </c>
       <c r="X2" s="2" t="s">
@@ -1592,10 +1586,10 @@
       <c r="AD2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="3" t="s">
         <v>68</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -1607,14 +1601,14 @@
       <c r="AI2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="108" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="114" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -1623,10 +1617,10 @@
         <v>74</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="I3" s="2"/>
@@ -1642,7 +1636,7 @@
       <c r="M3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1650,22 +1644,22 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>86</v>
       </c>
       <c r="X3" s="2"/>
@@ -1673,23 +1667,23 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="3" t="s">
+      <c r="AH3" s="2" t="s">
         <v>88</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="3" t="s">
         <v>89</v>
       </c>
     </row>

--- a/dashboard-ui/src/components/SurveyResults/Exploratory Delegation Variables.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Exploratory Delegation Variables.xlsx
@@ -31,7 +31,7 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>Total Time</t>
+    <t>Total Time (Minutes)</t>
   </si>
   <si>
     <t>Post-Scenario Measures - Time Taken (Minutes)</t>
@@ -967,7 +967,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,12 +978,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1015,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1023,17 +1017,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,46 +1331,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="5" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="5" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="6" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="5" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="4" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="4" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="4" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="4" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="4" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="4" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="4" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="4" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="4" width="25.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="51" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1446,10 +1434,10 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
@@ -1473,10 +1461,10 @@
       <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
@@ -1488,14 +1476,14 @@
       <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="208.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="249" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1559,10 +1547,10 @@
       <c r="U2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="X2" s="2" t="s">
@@ -1586,10 +1574,10 @@
       <c r="AD2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -1601,10 +1589,10 @@
       <c r="AI2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1617,7 +1605,7 @@
         <v>74</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
@@ -1656,10 +1644,10 @@
       <c r="U3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>86</v>
       </c>
       <c r="X3" s="2"/>
@@ -1671,8 +1659,8 @@
         <v>87</v>
       </c>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2" t="s">
         <v>88</v>
@@ -1680,10 +1668,10 @@
       <c r="AI3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="2" t="s">
         <v>89</v>
       </c>
     </row>

--- a/dashboard-ui/src/components/SurveyResults/Exploratory Delegation Variables.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Exploratory Delegation Variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>Variables</t>
   </si>
@@ -31,18 +31,27 @@
     <t>End Time</t>
   </si>
   <si>
+    <t>Total Time (mm:ss)</t>
+  </si>
+  <si>
     <t>Total Time (Minutes)</t>
   </si>
   <si>
     <t>Post-Scenario Measures - Time Taken (Minutes)</t>
   </si>
   <si>
+    <t>Post-Scenario Measures - Time Taken (mm:ss))</t>
+  </si>
+  <si>
     <t>VR Experience Level</t>
   </si>
   <si>
     <t>Note Page - Time Taken (Minutes)</t>
   </si>
   <si>
+    <t>Note Page - Time Taken (mm:ss)</t>
+  </si>
+  <si>
     <t>BX_DMY</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t>BX_DMY_Time</t>
   </si>
   <si>
+    <t>BX_DMY_Time (mm:ss)</t>
+  </si>
+  <si>
     <t>BX_DMY_Scenario</t>
   </si>
   <si>
@@ -142,6 +154,9 @@
     <t>The time the participant ended the survey</t>
   </si>
   <si>
+    <t>The total time (mm:ss) it took the participant to complete the survey</t>
+  </si>
+  <si>
     <t>The total time (Minutes) it took the participant to complete the survey</t>
   </si>
   <si>
@@ -172,7 +187,10 @@
     <t>The name assigned to the DM the participant viewed.</t>
   </si>
   <si>
-    <t>The time the participant spent on this page</t>
+    <t>The time (Minutes) the participant spent on this page</t>
+  </si>
+  <si>
+    <t>The time (mm:ss) the participant spent on this page</t>
   </si>
   <si>
     <t>The scenario shown to the participant</t>
@@ -1009,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1017,11 +1035,17 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,49 +1349,53 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="4" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="4" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="4" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="4" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="4" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="4" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="4" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="4" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="4" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="5" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="5" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="5" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="5" width="25.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="60" customFormat="1" s="1">
@@ -1386,7 +1414,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1395,7 +1423,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1404,7 +1432,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1428,7 +1456,7 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1481,198 +1509,226 @@
       </c>
       <c r="AK1" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="249" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="114" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="R3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>89</v>
+      <c r="AG3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard-ui/src/components/SurveyResults/Exploratory Delegation Variables.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Exploratory Delegation Variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>Variables</t>
   </si>
@@ -31,15 +31,24 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>Total Time</t>
-  </si>
-  <si>
-    <t>Post-Scenario Measures - Time Taken (mm:ss)</t>
+    <t>Total Time (mm:ss)</t>
+  </si>
+  <si>
+    <t>Total Time (Minutes)</t>
+  </si>
+  <si>
+    <t>Post-Scenario Measures - Time Taken (Minutes)</t>
+  </si>
+  <si>
+    <t>Post-Scenario Measures - Time Taken (mm:ss))</t>
   </si>
   <si>
     <t>VR Experience Level</t>
   </si>
   <si>
+    <t>Note Page - Time Taken (Minutes)</t>
+  </si>
+  <si>
     <t>Note Page - Time Taken (mm:ss)</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t>BX_DMY_Time</t>
   </si>
   <si>
+    <t>BX_DMY_Time (mm:ss)</t>
+  </si>
+  <si>
     <t>BX_DMY_Scenario</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t>The total time (mm:ss) it took the participant to complete the survey</t>
   </si>
   <si>
+    <t>The total time (Minutes) it took the participant to complete the survey</t>
+  </si>
+  <si>
     <t>The total time it took the participant to go through the last page of the survey</t>
   </si>
   <si>
@@ -172,7 +187,10 @@
     <t>The name assigned to the DM the participant viewed.</t>
   </si>
   <si>
-    <t>The time the participant spent on this page</t>
+    <t>The time (Minutes) the participant spent on this page</t>
+  </si>
+  <si>
+    <t>The time (mm:ss) the participant spent on this page</t>
   </si>
   <si>
     <t>The scenario shown to the participant</t>
@@ -205,7 +223,7 @@
     <t>The name and alignment value of the third medic being compared in this comparison page</t>
   </si>
   <si>
-    <t>The amount of time the participant spent (mm:ss) on the comparison page</t>
+    <t>The amount of time the participant spent (Minutes) on the comparison page</t>
   </si>
   <si>
     <t>The response to the first forced choice question (baseline vs aligned)</t>
@@ -967,19 +985,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1015,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1023,14 +1035,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1343,52 +1349,56 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="7" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="7" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="7" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="7" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="7" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="7" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="8" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="7" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="5" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="5" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="5" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="5" width="25.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="42" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1414,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1413,7 +1423,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1446,16 +1456,16 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
@@ -1479,10 +1489,10 @@
       <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
@@ -1494,203 +1504,231 @@
       <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="174" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="249" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="V2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="X2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF2" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="AE2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="AG2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="AN2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="108" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="114" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="Q3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="W3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>89</v>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
